--- a/docs/環境構築手順.xlsx
+++ b/docs/環境構築手順.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="14655" activeTab="1"/>
+    <workbookView windowWidth="27975" windowHeight="12855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>ウィンドウズアプリケーションで作成された業務システムをウェブアプリケーションで構築例を示す</t>
   </si>
@@ -181,9 +181,6 @@
     <t>dotnet add package Microsoft.AspNetCore.Identity.EntityFrameworkCore --version 5.0.7</t>
   </si>
   <si>
-    <t>dotnet add package Npgsql.EntityFrameworkCore.PostgreSQL --version 5.0.7</t>
-  </si>
-  <si>
     <t>dotnet add package Microsoft.EntityFrameworkCore.Design --version 5.0.7</t>
   </si>
   <si>
@@ -197,6 +194,24 @@
   </si>
   <si>
     <t>dotnet add package Microsoft.Extensions.Logging.Console --version 5.0.0</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>postgresの場合</t>
+  </si>
+  <si>
+    <t>dotnet add package Npgsql.EntityFrameworkCore.PostgreSQL --version 5.0.7</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>sqliteの場合</t>
+  </si>
+  <si>
+    <t>dotnet add package Microsoft.EntityFrameworkCore.Sqlite --version 5.0.7</t>
   </si>
   <si>
     <t>エクセルファイルを扱うためのモジュール</t>
@@ -315,10 +330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -344,17 +359,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,25 +374,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,31 +413,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,9 +449,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,37 +497,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,25 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,31 +581,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,25 +635,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,19 +677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,21 +696,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +730,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -741,17 +767,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,142 +793,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1456,7 +1471,7 @@
             <a:t>    '@nuxtjs/axios'</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>,</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -1464,7 +1479,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100"/>
             <a:t>　</a:t>
           </a:r>
           <a:r>
@@ -1476,7 +1491,7 @@
             <a:t>'@nuxtjs/auth'      </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1524,7 +1539,7 @@
             <a:t>    proxy: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1608,7 +1623,7 @@
             <a:t>      </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1928,7 +1943,7 @@
             <a:t>target: 'static', // デフォルトは 'server'  </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -12247,7 +12262,7 @@
   <sheetPr/>
   <dimension ref="B3:BU226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -12438,10 +12453,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:AP57"/>
+  <dimension ref="C2:AP61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15"/>
@@ -12571,45 +12586,66 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
-      <c r="D47" t="s">
+    <row r="48" spans="3:4">
+      <c r="C48" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="D48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="4:4">
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
-      <c r="D57" t="s">
+    <row r="53" spans="3:4">
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -12642,18 +12678,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="6:14">
       <c r="F3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="4:6">
@@ -12661,54 +12697,54 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="25:25">
       <c r="Y7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="6:16">
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="170" spans="4:6">
       <c r="D170" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F170" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="171" spans="7:7">
       <c r="G171" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172" spans="7:7">
       <c r="G172" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="232" spans="3:4">
@@ -12716,25 +12752,25 @@
         <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="233" spans="35:35">
       <c r="AI233" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="234" spans="4:6">
       <c r="D234" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F234" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="258" spans="35:35">
       <c r="AI258" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="456" spans="3:4">
@@ -12742,7 +12778,7 @@
         <v>4</v>
       </c>
       <c r="D456" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="504" spans="2:3">
@@ -12750,7 +12786,7 @@
         <v>6</v>
       </c>
       <c r="C504" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="564" spans="2:3">
@@ -12758,7 +12794,7 @@
         <v>7</v>
       </c>
       <c r="C564" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="730" spans="3:4">
@@ -12766,12 +12802,12 @@
         <v>10</v>
       </c>
       <c r="D730" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="731" spans="4:4">
       <c r="D731" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="733" spans="3:4">
@@ -12779,17 +12815,17 @@
         <v>11</v>
       </c>
       <c r="D733" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="734" spans="4:4">
       <c r="D734" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="735" spans="4:4">
       <c r="D735" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -12819,7 +12855,7 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -12844,7 +12880,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -12869,7 +12905,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
